--- a/Application/2018年U.S. News CS.xlsx
+++ b/Application/2018年U.S. News CS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skye/Desktop/Flying-ETS/Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9563AC-1007-414E-B723-8205532B2328}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDB62DF-B0D7-3F4D-AE90-701E55C48213}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="17380" windowHeight="19180" xr2:uid="{707F7587-28F5-4E7B-A2A4-7D35BEC7329F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19860" windowHeight="19200" xr2:uid="{707F7587-28F5-4E7B-A2A4-7D35BEC7329F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="274">
   <si>
     <t>Princeton University</t>
   </si>
@@ -90,766 +90,859 @@
     <t>约翰霍普金斯大学</t>
   </si>
   <si>
+    <t>西北大学</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>加州理工学院</t>
+  </si>
+  <si>
+    <t>Dartmouth College</t>
+  </si>
+  <si>
+    <t>达特茅斯学院</t>
+  </si>
+  <si>
+    <t>Brown University</t>
+  </si>
+  <si>
+    <t>布朗大学</t>
+  </si>
+  <si>
+    <t>Vanderbilt University</t>
+  </si>
+  <si>
+    <t>范德堡大学</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>康奈尔大学</t>
+  </si>
+  <si>
+    <t>莱斯大学</t>
+  </si>
+  <si>
+    <t>University of Notre Dame</t>
+  </si>
+  <si>
+    <t>圣母大学</t>
+  </si>
+  <si>
+    <t>University of California-Los Angeles</t>
+  </si>
+  <si>
+    <t>加州大学洛杉矶分校</t>
+  </si>
+  <si>
+    <t>Washington University in St. Louis</t>
+  </si>
+  <si>
+    <t>华盛顿圣路易斯大学</t>
+  </si>
+  <si>
+    <t>Emory University</t>
+  </si>
+  <si>
+    <t>埃默里大学</t>
+  </si>
+  <si>
+    <t>Georgetown University</t>
+  </si>
+  <si>
+    <t>乔治城大学</t>
+  </si>
+  <si>
+    <t>University of California-Berkeley</t>
+  </si>
+  <si>
+    <t>加州大学伯克利分校</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>南加州大学</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>卡内基梅隆大学</t>
+  </si>
+  <si>
+    <t>弗吉尼亚大学</t>
+  </si>
+  <si>
+    <t>Tufts University</t>
+  </si>
+  <si>
+    <t>塔夫茨大学</t>
+  </si>
+  <si>
+    <t>University of Michigan-Ann Arbor</t>
+  </si>
+  <si>
+    <t>密歇根大学安娜堡分校</t>
+  </si>
+  <si>
+    <t>Wake Forest University</t>
+  </si>
+  <si>
+    <t>维克森林大学</t>
+  </si>
+  <si>
+    <t>New York University</t>
+  </si>
+  <si>
+    <t>纽约大学</t>
+  </si>
+  <si>
+    <t>University of California--Santa Barbara</t>
+  </si>
+  <si>
+    <t>加州大学圣塔芭芭拉分校</t>
+  </si>
+  <si>
+    <t>University of North Carolina--Chapel Hill</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州大学教堂山分校</t>
+  </si>
+  <si>
+    <t>加州大学欧文分校</t>
+  </si>
+  <si>
+    <t>罗彻斯特大学</t>
+  </si>
+  <si>
+    <t>布兰戴斯大学</t>
+  </si>
+  <si>
+    <t>加州大学圣地亚哥分校</t>
+  </si>
+  <si>
+    <t>波士顿大学</t>
+  </si>
+  <si>
+    <t>Case Western Reserve University</t>
+  </si>
+  <si>
+    <t>凯斯西储大学</t>
+  </si>
+  <si>
+    <t>东北大学</t>
+  </si>
+  <si>
+    <t>Tulane University</t>
+  </si>
+  <si>
+    <t>杜兰大学</t>
+  </si>
+  <si>
+    <t>Pepperdine University</t>
+  </si>
+  <si>
+    <t>佩珀代因大学</t>
+  </si>
+  <si>
+    <t>University of Georgia</t>
+  </si>
+  <si>
+    <t>乔治亚大学</t>
+  </si>
+  <si>
+    <t>伊利诺伊大学香槟分校</t>
+  </si>
+  <si>
+    <t>Rensselaer Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>伦斯勒理工学院</t>
+  </si>
+  <si>
+    <t>德克萨斯大学奥斯汀分校</t>
+  </si>
+  <si>
+    <t>University of Wisconsin—Madison</t>
+  </si>
+  <si>
+    <t>威斯康星大学麦迪逊分校</t>
+  </si>
+  <si>
+    <t>Villanova University</t>
+  </si>
+  <si>
+    <t>维拉诺瓦大学</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>里海大学</t>
+  </si>
+  <si>
+    <t>雪城大学</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>迈阿密大学</t>
+  </si>
+  <si>
+    <t>俄亥俄州立大学</t>
+  </si>
+  <si>
+    <t>普渡大学</t>
+  </si>
+  <si>
+    <t>罗格斯大学</t>
+  </si>
+  <si>
+    <t>Pennsylvania State University--University Park</t>
+  </si>
+  <si>
+    <t>宾州州立大学</t>
+  </si>
+  <si>
+    <t>Southern Methodist University</t>
+  </si>
+  <si>
+    <t>南卫理公会大学</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>华盛顿大学西雅图分校</t>
+  </si>
+  <si>
+    <t>Worcester Polytechnic Institute</t>
+  </si>
+  <si>
+    <t>伍斯特理工学院</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>乔治华盛顿大学</t>
+  </si>
+  <si>
+    <t>University of Connecticut</t>
+  </si>
+  <si>
+    <t>康涅狄格大学</t>
+  </si>
+  <si>
+    <t>University of Maryland--College Park</t>
+  </si>
+  <si>
+    <t>马里兰大学帕克分校</t>
+  </si>
+  <si>
+    <t>Brigham Young University—Provo</t>
+  </si>
+  <si>
+    <t>杨百翰大学</t>
+  </si>
+  <si>
+    <t>Clark University</t>
+  </si>
+  <si>
+    <t>克拉克大学</t>
+  </si>
+  <si>
+    <t>Clemson University</t>
+  </si>
+  <si>
+    <t>克莱蒙森大学</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M University--College Station</t>
+  </si>
+  <si>
+    <t>德州农工大学</t>
+  </si>
+  <si>
+    <t>Florida State University</t>
+  </si>
+  <si>
+    <t>佛罗里达州立大学</t>
+  </si>
+  <si>
+    <t>Fordham University</t>
+  </si>
+  <si>
+    <t>福德汉姆大学</t>
+  </si>
+  <si>
+    <t>Stevens Institute of Technology</t>
+  </si>
+  <si>
+    <t>史蒂文斯科技学院</t>
+  </si>
+  <si>
+    <t>University of California--Santa Cruz</t>
+  </si>
+  <si>
+    <t>加州大学圣克鲁兹分校</t>
+  </si>
+  <si>
+    <t>University of Massachusetts—Amherst</t>
+  </si>
+  <si>
+    <t>麻省大学艾默斯特校区</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>匹兹堡大学</t>
+  </si>
+  <si>
+    <t>University of Minnesota--Twin Cities</t>
+  </si>
+  <si>
+    <t>明尼苏达大学</t>
+  </si>
+  <si>
+    <t>弗吉尼亚理工大学</t>
+  </si>
+  <si>
+    <t>American University</t>
+  </si>
+  <si>
+    <t>美国大学</t>
+  </si>
+  <si>
+    <t>Baylor University</t>
+  </si>
+  <si>
+    <t>贝勒大学</t>
+  </si>
+  <si>
+    <t>Binghamton University--SUNY</t>
+  </si>
+  <si>
+    <t>宾汉姆顿大学</t>
+  </si>
+  <si>
+    <t>Colorado chool of Mines</t>
+  </si>
+  <si>
+    <t>科罗拉多矿业大学</t>
+  </si>
+  <si>
+    <t>北卡罗莱纳州立大学</t>
+  </si>
+  <si>
+    <t>Stony Brook University—SUNY</t>
+  </si>
+  <si>
+    <t>纽约州立大学石溪分校</t>
+  </si>
+  <si>
+    <t>Texas Christian University</t>
+  </si>
+  <si>
+    <t>德克萨斯基督教大学</t>
+  </si>
+  <si>
+    <t>Yeshiva University</t>
+  </si>
+  <si>
+    <t>耶斯希瓦大学</t>
+  </si>
+  <si>
+    <t>Michigan State University</t>
+  </si>
+  <si>
+    <t>密歇根州立大学</t>
+  </si>
+  <si>
+    <t>加州大学河滨分校</t>
+  </si>
+  <si>
+    <t>University of San Diego</t>
+  </si>
+  <si>
+    <t>圣地亚哥大学</t>
+  </si>
+  <si>
+    <t>Howard University</t>
+  </si>
+  <si>
+    <t>霍华德大学</t>
+  </si>
+  <si>
+    <t>Indiana University—Bloomington</t>
+  </si>
+  <si>
+    <t>印第安纳大学伯明顿分校</t>
+  </si>
+  <si>
+    <t>Loyola University Chicago</t>
+  </si>
+  <si>
+    <t>芝加哥洛约拉大学</t>
+  </si>
+  <si>
+    <t>Marquette University</t>
+  </si>
+  <si>
+    <t>马凯特大学</t>
+  </si>
+  <si>
+    <t>University at Buffalo—SUNY</t>
+  </si>
+  <si>
+    <t>纽约州立大学水牛城分校</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>特拉华大学</t>
+  </si>
+  <si>
+    <t>Illinois Institute of Technology</t>
+  </si>
+  <si>
+    <t>美国伊利诺伊斯理工大学</t>
+  </si>
+  <si>
+    <t>Miami University—Oxford</t>
+  </si>
+  <si>
+    <t>迈阿密大学牛津分校</t>
+  </si>
+  <si>
+    <t>University of Colorado--Bounlder</t>
+  </si>
+  <si>
+    <t>科罗拉多大学丹佛分校</t>
+  </si>
+  <si>
+    <t>University of Denver</t>
+  </si>
+  <si>
+    <t>丹佛大学</t>
+  </si>
+  <si>
+    <t>University of San Francisco</t>
+  </si>
+  <si>
+    <t>旧金山大学</t>
+  </si>
+  <si>
+    <t>Rochester Insititue of Technology</t>
+  </si>
+  <si>
+    <t>罗切斯特理工学院</t>
+  </si>
+  <si>
+    <t>MCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS,ALIGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐治亚理工学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Florida</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛罗里达大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston College</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波士顿学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>College of William and Mary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威廉与玛丽学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California--Davis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加州大学戴维斯分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iowa State University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱荷华州立大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Oregon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Illinois--Chicago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊利诺伊大学芝加哥分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Texas--Dallas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄勒冈大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德克萨斯大学达拉斯分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Iowa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱荷华大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>George Mason University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔治梅森大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oregon State University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄勒冈州立大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colorado State University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科罗拉多州立大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arizona State University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚利桑那州立大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Carolina State University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Arizona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚利桑那大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Utah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹他大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21/4.11/5.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.15/5/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://engineering.tamu.edu/admissions-and-aid/graduate.html</t>
+  </si>
+  <si>
+    <t>CIT3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS12.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cmu.edu/ini/admissions/howtoapply.html</t>
+  </si>
+  <si>
+    <t>INI:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECE-SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://viterbigradadmission.usc.edu/programs/masters/msprograms/computer-science/ms-computer-science/</t>
+  </si>
+  <si>
+    <t>https://www.cs.rice.edu/application-graduate-students</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.soe.ucsc.edu/departments/computer-science-and-engineering/graduate</t>
+  </si>
+  <si>
+    <t>https://www1.cs.ucr.edu/admissions/graduate/international</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Rochester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rutgers University--New Brunswick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UW-Madison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upenn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JHU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMich</t>
+  </si>
+  <si>
+    <t>ECE:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSIT-SE:</t>
+  </si>
+  <si>
+    <t>https://www.ece.cmu.edu/admissions/graduate-application-deadlines.html</t>
+  </si>
+  <si>
+    <t>https://mse.isri.cmu.edu/web3-programs/MSIT-SE/Plan%20of%20Study.html</t>
+  </si>
+  <si>
+    <t>University of Texas—Austin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYU-Tandon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandeis University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brandeis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://grad.uci.edu/academics/degree-programs/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://engineering.virginia.edu/future-grads/graduate-admission#accordion6763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cs.rutgers.edu/graduate/ms-program-in-computer-science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://engineering.nyu.edu/academics/programs/computer-science-ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.csc.ncsu.edu/academics/graduate/degrees/mcs.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.csc.ncsu.edu/academics/graduate/admdeadlines.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.brandeis.edu/gsas/programs/computer_science.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohio State University—Columbus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of California—Irvine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universtity of California-Riverside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Northwestern University</t>
-  </si>
-  <si>
-    <t>西北大学</t>
-  </si>
-  <si>
-    <t>California Institute of Technology</t>
-  </si>
-  <si>
-    <t>加州理工学院</t>
-  </si>
-  <si>
-    <t>Dartmouth College</t>
-  </si>
-  <si>
-    <t>达特茅斯学院</t>
-  </si>
-  <si>
-    <t>Brown University</t>
-  </si>
-  <si>
-    <t>布朗大学</t>
-  </si>
-  <si>
-    <t>Vanderbilt University</t>
-  </si>
-  <si>
-    <t>范德堡大学</t>
-  </si>
-  <si>
-    <t>Cornell University</t>
-  </si>
-  <si>
-    <t>康奈尔大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rice University</t>
-  </si>
-  <si>
-    <t>莱斯大学</t>
-  </si>
-  <si>
-    <t>University of Notre Dame</t>
-  </si>
-  <si>
-    <t>圣母大学</t>
-  </si>
-  <si>
-    <t>University of California-Los Angeles</t>
-  </si>
-  <si>
-    <t>加州大学洛杉矶分校</t>
-  </si>
-  <si>
-    <t>Washington University in St. Louis</t>
-  </si>
-  <si>
-    <t>华盛顿圣路易斯大学</t>
-  </si>
-  <si>
-    <t>Emory University</t>
-  </si>
-  <si>
-    <t>埃默里大学</t>
-  </si>
-  <si>
-    <t>Georgetown University</t>
-  </si>
-  <si>
-    <t>乔治城大学</t>
-  </si>
-  <si>
-    <t>University of California-Berkeley</t>
-  </si>
-  <si>
-    <t>加州大学伯克利分校</t>
-  </si>
-  <si>
-    <t>University of Southern California</t>
-  </si>
-  <si>
-    <t>南加州大学</t>
-  </si>
-  <si>
-    <t>Carnegie Mellon University</t>
-  </si>
-  <si>
-    <t>卡内基梅隆大学</t>
-  </si>
-  <si>
-    <t>University of Virginia</t>
-  </si>
-  <si>
-    <t>弗吉尼亚大学</t>
-  </si>
-  <si>
-    <t>Tufts University</t>
-  </si>
-  <si>
-    <t>塔夫茨大学</t>
-  </si>
-  <si>
-    <t>University of Michigan-Ann Arbor</t>
-  </si>
-  <si>
-    <t>密歇根大学安娜堡分校</t>
-  </si>
-  <si>
-    <t>Wake Forest University</t>
-  </si>
-  <si>
-    <t>维克森林大学</t>
-  </si>
-  <si>
-    <t>New York University</t>
-  </si>
-  <si>
-    <t>纽约大学</t>
-  </si>
-  <si>
-    <t>University of California--Santa Barbara</t>
-  </si>
-  <si>
-    <t>加州大学圣塔芭芭拉分校</t>
-  </si>
-  <si>
-    <t>University of North Carolina--Chapel Hill</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州大学教堂山分校</t>
-  </si>
-  <si>
-    <t>University of California—Irvine</t>
-  </si>
-  <si>
-    <t>加州大学欧文分校</t>
-  </si>
-  <si>
-    <t>罗彻斯特大学</t>
-  </si>
-  <si>
-    <t>Brandeis University</t>
-  </si>
-  <si>
-    <t>布兰戴斯大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://polytechnic.purdue.edu/degrees/ms-computer-and-information-technology/admissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/cnit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purdue University--West Lafayette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">卡G-V153 T101 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡T105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS/DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>University of California--San Diego</t>
-  </si>
-  <si>
-    <t>加州大学圣地亚哥分校</t>
-  </si>
-  <si>
-    <t>波士顿大学</t>
-  </si>
-  <si>
-    <t>Case Western Reserve University</t>
-  </si>
-  <si>
-    <t>凯斯西储大学</t>
-  </si>
-  <si>
-    <t>东北大学</t>
-  </si>
-  <si>
-    <t>Tulane University</t>
-  </si>
-  <si>
-    <t>杜兰大学</t>
-  </si>
-  <si>
-    <t>Pepperdine University</t>
-  </si>
-  <si>
-    <t>佩珀代因大学</t>
-  </si>
-  <si>
-    <t>University of Georgia</t>
-  </si>
-  <si>
-    <t>乔治亚大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apply.grad.ucsd.edu/areas-of-study/division-of-physical-sciences#computational-science-mathematics-and-engineering-cu75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECE-Meng 7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ece.illinois.edu/admissions/graduate/meng-degree-information.asp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>University of Illinois--Urbana-Champaign</t>
-  </si>
-  <si>
-    <t>伊利诺伊大学香槟分校</t>
-  </si>
-  <si>
-    <t>Rensselaer Polytechnic Institute</t>
-  </si>
-  <si>
-    <t>伦斯勒理工学院</t>
-  </si>
-  <si>
-    <t>德克萨斯大学奥斯汀分校</t>
-  </si>
-  <si>
-    <t>University of Wisconsin—Madison</t>
-  </si>
-  <si>
-    <t>威斯康星大学麦迪逊分校</t>
-  </si>
-  <si>
-    <t>Villanova University</t>
-  </si>
-  <si>
-    <t>维拉诺瓦大学</t>
-  </si>
-  <si>
-    <t>Lehigh University</t>
-  </si>
-  <si>
-    <t>里海大学</t>
-  </si>
-  <si>
-    <t>雪城大学</t>
-  </si>
-  <si>
-    <t>University of Miami</t>
-  </si>
-  <si>
-    <t>迈阿密大学</t>
-  </si>
-  <si>
-    <t>Ohio State University—Columbus</t>
-  </si>
-  <si>
-    <t>俄亥俄州立大学</t>
-  </si>
-  <si>
-    <t>Purdue University--West Lafayette</t>
-  </si>
-  <si>
-    <t>普渡大学</t>
-  </si>
-  <si>
-    <t>罗格斯大学</t>
-  </si>
-  <si>
-    <t>Pennsylvania State University--University Park</t>
-  </si>
-  <si>
-    <t>宾州州立大学</t>
-  </si>
-  <si>
-    <t>Southern Methodist University</t>
-  </si>
-  <si>
-    <t>南卫理公会大学</t>
-  </si>
-  <si>
-    <t>University of Washington</t>
-  </si>
-  <si>
-    <t>华盛顿大学西雅图分校</t>
-  </si>
-  <si>
-    <t>Worcester Polytechnic Institute</t>
-  </si>
-  <si>
-    <t>伍斯特理工学院</t>
-  </si>
-  <si>
-    <t>George Washington University</t>
-  </si>
-  <si>
-    <t>乔治华盛顿大学</t>
-  </si>
-  <si>
-    <t>University of Connecticut</t>
-  </si>
-  <si>
-    <t>康涅狄格大学</t>
-  </si>
-  <si>
-    <t>University of Maryland--College Park</t>
-  </si>
-  <si>
-    <t>马里兰大学帕克分校</t>
-  </si>
-  <si>
-    <t>Brigham Young University—Provo</t>
-  </si>
-  <si>
-    <t>杨百翰大学</t>
-  </si>
-  <si>
-    <t>Clark University</t>
-  </si>
-  <si>
-    <t>克拉克大学</t>
-  </si>
-  <si>
-    <t>Clemson University</t>
-  </si>
-  <si>
-    <t>克莱蒙森大学</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M University--College Station</t>
-  </si>
-  <si>
-    <t>德州农工大学</t>
-  </si>
-  <si>
-    <t>Florida State University</t>
-  </si>
-  <si>
-    <t>佛罗里达州立大学</t>
-  </si>
-  <si>
-    <t>Fordham University</t>
-  </si>
-  <si>
-    <t>福德汉姆大学</t>
-  </si>
-  <si>
-    <t>Stevens Institute of Technology</t>
-  </si>
-  <si>
-    <t>史蒂文斯科技学院</t>
-  </si>
-  <si>
-    <t>University of California--Santa Cruz</t>
-  </si>
-  <si>
-    <t>加州大学圣克鲁兹分校</t>
-  </si>
-  <si>
-    <t>University of Massachusetts—Amherst</t>
-  </si>
-  <si>
-    <t>麻省大学艾默斯特校区</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh</t>
-  </si>
-  <si>
-    <t>匹兹堡大学</t>
-  </si>
-  <si>
-    <t>University of Minnesota--Twin Cities</t>
-  </si>
-  <si>
-    <t>明尼苏达大学</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
-    <t>弗吉尼亚理工大学</t>
-  </si>
-  <si>
-    <t>American University</t>
-  </si>
-  <si>
-    <t>美国大学</t>
-  </si>
-  <si>
-    <t>Baylor University</t>
-  </si>
-  <si>
-    <t>贝勒大学</t>
-  </si>
-  <si>
-    <t>Binghamton University--SUNY</t>
-  </si>
-  <si>
-    <t>宾汉姆顿大学</t>
-  </si>
-  <si>
-    <t>Colorado chool of Mines</t>
-  </si>
-  <si>
-    <t>科罗拉多矿业大学</t>
-  </si>
-  <si>
-    <t>北卡罗莱纳州立大学</t>
-  </si>
-  <si>
-    <t>Stony Brook University—SUNY</t>
-  </si>
-  <si>
-    <t>纽约州立大学石溪分校</t>
-  </si>
-  <si>
-    <t>Texas Christian University</t>
-  </si>
-  <si>
-    <t>德克萨斯基督教大学</t>
-  </si>
-  <si>
-    <t>Yeshiva University</t>
-  </si>
-  <si>
-    <t>耶斯希瓦大学</t>
-  </si>
-  <si>
-    <t>Michigan State University</t>
-  </si>
-  <si>
-    <t>密歇根州立大学</t>
-  </si>
-  <si>
-    <t>Universtity of California-Riverside</t>
-  </si>
-  <si>
-    <t>加州大学河滨分校</t>
-  </si>
-  <si>
-    <t>University of San Diego</t>
-  </si>
-  <si>
-    <t>圣地亚哥大学</t>
-  </si>
-  <si>
-    <t>Howard University</t>
-  </si>
-  <si>
-    <t>霍华德大学</t>
-  </si>
-  <si>
-    <t>Indiana University—Bloomington</t>
-  </si>
-  <si>
-    <t>印第安纳大学伯明顿分校</t>
-  </si>
-  <si>
-    <t>Loyola University Chicago</t>
-  </si>
-  <si>
-    <t>芝加哥洛约拉大学</t>
-  </si>
-  <si>
-    <t>Marquette University</t>
-  </si>
-  <si>
-    <t>马凯特大学</t>
-  </si>
-  <si>
-    <t>University at Buffalo—SUNY</t>
-  </si>
-  <si>
-    <t>纽约州立大学水牛城分校</t>
-  </si>
-  <si>
-    <t>University of Delaware</t>
-  </si>
-  <si>
-    <t>特拉华大学</t>
-  </si>
-  <si>
-    <t>Illinois Institute of Technology</t>
-  </si>
-  <si>
-    <t>美国伊利诺伊斯理工大学</t>
-  </si>
-  <si>
-    <t>Miami University—Oxford</t>
-  </si>
-  <si>
-    <t>迈阿密大学牛津分校</t>
-  </si>
-  <si>
-    <t>University of Colorado--Bounlder</t>
-  </si>
-  <si>
-    <t>科罗拉多大学丹佛分校</t>
-  </si>
-  <si>
-    <t>University of Denver</t>
-  </si>
-  <si>
-    <t>丹佛大学</t>
-  </si>
-  <si>
-    <t>University of San Francisco</t>
-  </si>
-  <si>
-    <t>旧金山大学</t>
-  </si>
-  <si>
-    <t>Rochester Insititue of Technology</t>
-  </si>
-  <si>
-    <t>罗切斯特理工学院</t>
-  </si>
-  <si>
-    <t>MCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS,ALIGN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Georgia Institute of Technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佐治亚理工学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Florida</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛罗里达大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boston College</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波士顿学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>College of William and Mary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威廉与玛丽学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of California--Davis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加州大学戴维斯分校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iowa State University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱荷华州立大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Oregon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Illinois--Chicago</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊利诺伊大学芝加哥分校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Texas--Dallas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄勒冈大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德克萨斯大学达拉斯分校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Iowa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱荷华大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>George Mason University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔治梅森大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oregon State University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄勒冈州立大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Colorado State University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科罗拉多州立大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arizona State University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚利桑那州立大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>North Carolina State University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Arizona</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚利桑那大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Utah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>犹他大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boston University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.21/4.11/5.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.15/5/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1(maybe)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://engineering.tamu.edu/admissions-and-aid/graduate.html</t>
-  </si>
-  <si>
-    <t>https://www.purdue.edu/gradschool/prospective/gradrequirements/westlafayette/cs.html</t>
-  </si>
-  <si>
-    <t>CIT3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS12.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.cmu.edu/ini/admissions/howtoapply.html</t>
-  </si>
-  <si>
-    <t>INI:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECE-SE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://viterbigradadmission.usc.edu/programs/masters/msprograms/computer-science/ms-computer-science/</t>
-  </si>
-  <si>
-    <t>https://www.cs.rice.edu/application-graduate-students</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://engineering.virginia.edu/future-grads/graduate-admission#accordion6763</t>
-  </si>
-  <si>
-    <t>https://www.soe.ucsc.edu/departments/computer-science-and-engineering/graduate</t>
-  </si>
-  <si>
-    <t>https://www1.cs.ucr.edu/admissions/graduate/international</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>University of Rochester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rutgers University--New Brunswick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UW-Madison</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upenn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JHU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Syracuse University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMich</t>
-  </si>
-  <si>
-    <t>ECE:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSIT-SE:</t>
-  </si>
-  <si>
-    <t>https://www.ece.cmu.edu/admissions/graduate-application-deadlines.html</t>
-  </si>
-  <si>
-    <t>https://mse.isri.cmu.edu/web3-programs/MSIT-SE/Plan%20of%20Study.html</t>
-  </si>
-  <si>
-    <t>University of Texas—Austin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NYU-Tandon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northeastern University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄送成绩单: https://gradadm.usc.edu/lightboxes/international-students-country-requirements/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,12 +978,6 @@
       <sz val="14"/>
       <color rgb="FF191919"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF24292E"/>
-      <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
@@ -1020,11 +1107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,9 +1166,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1097,13 +1181,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1421,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3C7D71-6CA1-4109-8C02-E94A7E8ECE7C}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1439,31 +1529,31 @@
   <sheetData>
     <row r="1" spans="1:7" ht="34.75" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="34.75" customHeight="1">
-      <c r="A2" s="19">
+    <row r="2" spans="1:7" s="21" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="B2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="21">
         <v>12.31</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>229</v>
+      <c r="F2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.75" customHeight="1">
@@ -1480,10 +1570,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34.75" customHeight="1">
@@ -1500,10 +1590,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34.75" customHeight="1">
@@ -1511,21 +1601,27 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="34.75" customHeight="1">
-      <c r="A6" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>82</v>
+      <c r="B6" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34.75" customHeight="1">
@@ -1533,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.75" customHeight="1">
@@ -1544,10 +1640,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.75" customHeight="1">
@@ -1566,10 +1662,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34.75" customHeight="1">
@@ -1577,13 +1673,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E11" s="1">
         <v>12.15</v>
@@ -1594,10 +1690,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34.75" customHeight="1">
@@ -1605,24 +1701,27 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="34.75" customHeight="1">
-      <c r="A14" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="16" t="s">
         <v>5</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34.75" customHeight="1">
@@ -1630,10 +1729,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34.75" customHeight="1">
@@ -1641,16 +1740,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="34.75" customHeight="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="34.75" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1661,46 +1760,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="34.75" customHeight="1">
-      <c r="A18" s="2">
+    <row r="18" spans="1:19" s="21" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="34.75" customHeight="1">
+      <c r="B18" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="34.75" customHeight="1">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34.75" customHeight="1">
-      <c r="A20" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="34.75" customHeight="1">
+      <c r="D20" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="34.75" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1711,78 +1822,84 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="22" customFormat="1" ht="34.75" customHeight="1">
-      <c r="A22" s="19">
+    <row r="22" spans="1:19" s="21" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="B22" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="23">
         <v>43130</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="22" customFormat="1" ht="34.75" customHeight="1">
-      <c r="A23" s="19">
+      <c r="F22" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="21" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="22">
+      <c r="B23" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="21">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="22" customFormat="1" ht="34.75" customHeight="1">
-      <c r="A24" s="19">
+      <c r="F23" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="21" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A24" s="18">
         <v>20</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="34.75" customHeight="1">
+      <c r="B24" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="34.75" customHeight="1">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="34.75" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="34.75" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1793,7 +1910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="34.75" customHeight="1">
+    <row r="27" spans="1:19" ht="34.75" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1804,46 +1921,49 @@
         <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="34.75" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="34.75" customHeight="1">
       <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="34.75" customHeight="1">
+      <c r="D28" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="34.75" customHeight="1">
       <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="34.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="34.75" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="34.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="34.75" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1853,240 +1973,261 @@
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="22" customFormat="1" ht="34.75" customHeight="1">
-      <c r="A32" s="19">
+      <c r="D31" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="21" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" s="22">
+      <c r="D32" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="21">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="22" customFormat="1" ht="34.75" customHeight="1">
-      <c r="A33" s="19">
+    <row r="33" spans="1:12" s="21" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A33" s="18">
         <v>30</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="22">
+      <c r="B33" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="8" customFormat="1" ht="34.75" customHeight="1">
+      <c r="F33" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="8" customFormat="1" ht="34.75" customHeight="1">
       <c r="A34" s="5">
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F34" s="8">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="G34" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="17" customFormat="1" ht="34.75" customHeight="1">
       <c r="A35" s="14">
         <v>30</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E35" s="17">
         <v>12.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="34.75" customHeight="1">
+      <c r="F35" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="34.75" customHeight="1">
       <c r="A36" s="2">
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="34.75" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="34.75" customHeight="1">
       <c r="A37" s="2">
         <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="34.75" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="34.75" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="34.75" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="34.75" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="8" customFormat="1" ht="34.75" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="8" customFormat="1" ht="34.75" customHeight="1">
       <c r="A40" s="5">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E40" s="8">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="34.75" customHeight="1">
+      <c r="F40" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="34.75" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A42" s="14">
+        <v>40</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="34.75" customHeight="1">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="34.75" customHeight="1">
+      <c r="C42" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="17">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="34.75" customHeight="1">
       <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="34.75" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="34.75" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="8" customFormat="1" ht="34.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:12" s="8" customFormat="1" ht="34.75" customHeight="1">
       <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E45" s="8">
         <v>1.1499999999999999</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="8" customFormat="1" ht="34.75" customHeight="1">
-      <c r="A46" s="5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A46" s="14">
         <v>43</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="34.75" customHeight="1">
+      <c r="B46" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="17">
+        <v>12.15</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L46" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="34.75" customHeight="1">
       <c r="A47" s="2">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="34.75" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="34.75" customHeight="1">
       <c r="A48" s="2">
         <v>43</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34.75" customHeight="1">
@@ -2094,10 +2235,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34.75" customHeight="1">
@@ -2105,10 +2246,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34.75" customHeight="1">
@@ -2116,21 +2257,24 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="34.75" customHeight="1">
-      <c r="A52" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A52" s="14">
         <v>49</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>188</v>
+      <c r="B52" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="8" customFormat="1" ht="34.75" customHeight="1">
@@ -2138,13 +2282,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E53" s="8">
         <v>5.0999999999999996</v>
@@ -2155,27 +2299,27 @@
         <v>49</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E54" s="8">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="34.75" customHeight="1">
-      <c r="A55" s="2">
+    <row r="55" spans="1:6" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A55" s="14">
         <v>49</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>133</v>
+      <c r="B55" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="34.75" customHeight="1">
@@ -2183,10 +2327,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34.75" customHeight="1">
@@ -2194,10 +2338,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="34.75" customHeight="1">
@@ -2205,10 +2349,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="34.75" customHeight="1">
@@ -2216,10 +2360,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34.75" customHeight="1">
@@ -2227,10 +2371,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="8" customFormat="1" ht="34.75" customHeight="1">
@@ -2238,50 +2382,50 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E61" s="9">
         <v>43110</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="17" customFormat="1" ht="34.75" customHeight="1">
-      <c r="A62" s="14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="8" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="16" t="s">
+      <c r="B62" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A63" s="14">
+        <v>61</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="34.75" customHeight="1">
-      <c r="A63" s="2">
-        <v>61</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>168</v>
+      <c r="C63" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="34.75" customHeight="1">
@@ -2289,10 +2433,10 @@
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="34.75" customHeight="1">
@@ -2300,10 +2444,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="34.75" customHeight="1">
@@ -2311,10 +2455,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="13" customFormat="1" ht="34.75" customHeight="1">
@@ -2322,16 +2466,16 @@
         <v>64</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="34.75" customHeight="1">
@@ -2339,10 +2483,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="34.75" customHeight="1">
@@ -2350,10 +2494,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="34.75" customHeight="1">
@@ -2361,10 +2505,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="13" customFormat="1" ht="34.75" customHeight="1">
@@ -2372,16 +2516,16 @@
         <v>68</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="34.75" customHeight="1">
@@ -2389,10 +2533,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="34.75" customHeight="1">
@@ -2400,10 +2544,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="34.75" customHeight="1">
@@ -2411,10 +2555,10 @@
         <v>68</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="34.75" customHeight="1">
@@ -2422,10 +2566,10 @@
         <v>68</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="34.75" customHeight="1">
@@ -2433,10 +2577,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="34.75" customHeight="1">
@@ -2444,10 +2588,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="34.75" customHeight="1">
@@ -2455,316 +2599,328 @@
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="34.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="34.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="34.75" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="34.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34.75" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="34.75" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="8" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="34.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="34.75" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="34.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34.75" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="34.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="34.75" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="34.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34.75" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="34.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="34.75" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="34.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="34.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="34.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="34.75" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="34.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="34.75" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="34.75" customHeight="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="17" customFormat="1" ht="34.75" customHeight="1">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="34.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="34.75" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="34.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="34.75" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="34.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="34.75" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="34.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="34.75" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="34.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="34.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="34.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="34.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="34.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="34.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="34.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="34.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="34.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="34.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="34.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="34.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2774,8 +2930,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F62" r:id="rId1" xr:uid="{A34DDF24-7984-0F4E-B81A-88A2B85949BD}"/>
+    <hyperlink ref="F35" r:id="rId2" xr:uid="{6742D1F4-9434-1140-B724-52EDA27BA2F0}"/>
+    <hyperlink ref="F40" r:id="rId3" xr:uid="{287F0937-0737-9B4F-9FDE-7FF217A97581}"/>
+    <hyperlink ref="G34" r:id="rId4" xr:uid="{F8DE8783-1F18-9849-9BA9-89722C9A9AD8}"/>
+    <hyperlink ref="F46" r:id="rId5" xr:uid="{28AEC69B-6A2A-9A4C-9301-4E423B2DE283}"/>
+    <hyperlink ref="L46" r:id="rId6" xr:uid="{0DACB95D-EF82-9D43-A70A-0E3F586E28FE}"/>
+    <hyperlink ref="F82" r:id="rId7" xr:uid="{D4EDBD77-0B41-8049-89F8-219A12753848}"/>
+    <hyperlink ref="F33" r:id="rId8" location="accordion6763" xr:uid="{807CB953-9908-3641-8FF7-8FFA52B7B42D}"/>
+    <hyperlink ref="O24" r:id="rId9" xr:uid="{550D6642-F85B-014A-9A56-D4BC29F6D3EB}"/>
+    <hyperlink ref="F24" r:id="rId10" xr:uid="{03C22F1A-D87A-D94C-A016-F3E39D87A0BA}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{8649E6D2-1397-1B46-A95C-E052623053BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Application/2018年U.S. News CS.xlsx
+++ b/Application/2018年U.S. News CS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skye/Desktop/Flying-ETS/Application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skye/Desktop/2019-Fall-CS/Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDB62DF-B0D7-3F4D-AE90-701E55C48213}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A98865-EFA5-154F-AE18-74A8CB3C0E2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19860" windowHeight="19200" xr2:uid="{707F7587-28F5-4E7B-A2A4-7D35BEC7329F}"/>
   </bookViews>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3C7D71-6CA1-4109-8C02-E94A7E8ECE7C}">
   <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
